--- a/out/test/Figori_algorithm_7.xlsx
+++ b/out/test/Figori_algorithm_7.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>0.68564999999999998</v>
+      </c>
+      <c r="B1">
+        <v>0.45595000000000002</v>
+      </c>
+      <c r="C1">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D1">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="E1">
+        <v>0.67869999999999997</v>
+      </c>
+      <c r="F1">
+        <v>0.67845</v>
+      </c>
+      <c r="G1">
+        <v>0.68594999999999995</v>
+      </c>
+      <c r="H1">
+        <v>0.45695000000000002</v>
+      </c>
+      <c r="I1">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="J1">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="K1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="L1">
+        <v>0.68964999999999999</v>
+      </c>
+      <c r="M1">
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="N1">
+        <v>0.68554999999999999</v>
+      </c>
+      <c r="O1">
+        <v>0.69094999999999995</v>
+      </c>
+      <c r="P1">
+        <v>0.67069999999999996</v>
+      </c>
+      <c r="Q1">
+        <v>0.67935000000000001</v>
+      </c>
+      <c r="R1">
+        <v>0.6905</v>
+      </c>
+      <c r="S1">
+        <v>0.68574999999999997</v>
+      </c>
+      <c r="T1">
+        <v>0.68735000000000002</v>
+      </c>
+      <c r="U1">
+        <v>0.67920000000000003</v>
+      </c>
+      <c r="V1">
+        <v>0.68974999999999997</v>
+      </c>
+      <c r="W1">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="X1">
+        <v>0.67705000000000004</v>
+      </c>
+      <c r="Y1">
+        <v>0.45195000000000002</v>
+      </c>
+      <c r="Z1">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="AA1">
+        <v>0.6915</v>
+      </c>
+      <c r="AB1">
+        <v>0.68025000000000002</v>
+      </c>
+      <c r="AC1">
+        <v>0.69074999999999998</v>
+      </c>
+      <c r="AD1">
+        <v>0.69025000000000003</v>
+      </c>
+      <c r="AE1">
+        <v>0.67695000000000005</v>
+      </c>
+      <c r="AF1">
+        <v>0.45855000000000001</v>
+      </c>
+      <c r="AG1">
+        <v>0.67244999999999999</v>
+      </c>
+      <c r="AH1">
+        <v>0.68615000000000004</v>
+      </c>
+      <c r="AI1">
+        <v>0.45324999999999999</v>
+      </c>
+      <c r="AJ1">
         <v>0.68435000000000001</v>
       </c>
-      <c r="B1">
-        <v>0.67035</v>
-      </c>
-      <c r="C1">
-        <v>0.4587</v>
-      </c>
-      <c r="D1">
-        <v>0.69325000000000003</v>
-      </c>
-      <c r="E1">
-        <v>0.68354999999999999</v>
-      </c>
-      <c r="F1">
-        <v>0.68874999999999997</v>
-      </c>
-      <c r="G1">
-        <v>0.45340000000000003</v>
-      </c>
-      <c r="H1">
-        <v>0.67710000000000004</v>
-      </c>
-      <c r="I1">
-        <v>0.68794999999999995</v>
-      </c>
-      <c r="J1">
-        <v>0.67854999999999999</v>
-      </c>
-      <c r="K1">
-        <v>0.45845000000000002</v>
-      </c>
-      <c r="L1">
-        <v>0.68830000000000002</v>
-      </c>
-      <c r="M1">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="N1">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="O1">
-        <v>0.67879999999999996</v>
-      </c>
-      <c r="P1">
-        <v>0.67405000000000004</v>
-      </c>
-      <c r="Q1">
-        <v>0.67825000000000002</v>
-      </c>
-      <c r="R1">
-        <v>0.67820000000000003</v>
-      </c>
-      <c r="S1">
-        <v>0.4582</v>
-      </c>
-      <c r="T1">
-        <v>0.68410000000000004</v>
-      </c>
-      <c r="U1">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="V1">
-        <v>0.67374999999999996</v>
-      </c>
-      <c r="W1">
-        <v>0.6825</v>
-      </c>
-      <c r="X1">
-        <v>0.66695000000000004</v>
-      </c>
-      <c r="Y1">
-        <v>0.68510000000000004</v>
-      </c>
-      <c r="Z1">
-        <v>0.69345000000000001</v>
-      </c>
-      <c r="AA1">
-        <v>0.6754</v>
-      </c>
-      <c r="AB1">
-        <v>0.67930000000000001</v>
-      </c>
-      <c r="AC1">
-        <v>0.69320000000000004</v>
-      </c>
-      <c r="AD1">
-        <v>0.69094999999999995</v>
-      </c>
-      <c r="AE1">
-        <v>0.6895</v>
-      </c>
-      <c r="AF1">
-        <v>0.45524999999999999</v>
-      </c>
-      <c r="AG1">
-        <v>0.68955</v>
-      </c>
-      <c r="AH1">
-        <v>0.68994999999999995</v>
-      </c>
-      <c r="AI1">
-        <v>0.67884999999999995</v>
-      </c>
-      <c r="AJ1">
-        <v>0.68405000000000005</v>
-      </c>
       <c r="AK1">
-        <v>0.68925000000000003</v>
+        <v>0.69125000000000003</v>
       </c>
       <c r="AL1">
-        <v>0.68340000000000001</v>
+        <v>0.68815000000000004</v>
       </c>
       <c r="AM1">
-        <v>0.68894999999999995</v>
+        <v>0.68505000000000005</v>
       </c>
       <c r="AN1">
-        <v>0.67615000000000003</v>
+        <v>0.6744</v>
       </c>
       <c r="AO1">
-        <v>0.67</v>
+        <v>0.4531</v>
       </c>
       <c r="AP1">
-        <v>0.68710000000000004</v>
+        <v>0.6774</v>
       </c>
       <c r="AQ1">
-        <v>0.68815000000000004</v>
+        <v>0.68654999999999999</v>
       </c>
       <c r="AR1">
-        <v>0.68764999999999998</v>
+        <v>0.69194999999999995</v>
       </c>
       <c r="AS1">
-        <v>0.68820000000000003</v>
+        <v>0.68864999999999998</v>
       </c>
       <c r="AT1">
-        <v>0.68740000000000001</v>
+        <v>0.69174999999999998</v>
       </c>
       <c r="AU1">
-        <v>0.67649999999999999</v>
+        <v>0.4511</v>
       </c>
       <c r="AV1">
-        <v>0.45910000000000001</v>
+        <v>0.67849999999999999</v>
       </c>
       <c r="AW1">
-        <v>0.68659999999999999</v>
+        <v>0.45124999999999998</v>
       </c>
       <c r="AX1">
-        <v>0.67884999999999995</v>
+        <v>0.67679999999999996</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.66920000000000002</v>
+        <v>0.66264999999999996</v>
       </c>
       <c r="B2">
+        <v>0.43504999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.66854999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.6573</v>
+      </c>
+      <c r="E2">
+        <v>0.65925</v>
+      </c>
+      <c r="F2">
+        <v>0.65585000000000004</v>
+      </c>
+      <c r="G2">
+        <v>0.67895000000000005</v>
+      </c>
+      <c r="H2">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="J2">
+        <v>0.67549999999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.43819999999999998</v>
+      </c>
+      <c r="L2">
+        <v>0.69259999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.67764999999999997</v>
+      </c>
+      <c r="N2">
+        <v>0.67820000000000003</v>
+      </c>
+      <c r="O2">
+        <v>0.67205000000000004</v>
+      </c>
+      <c r="P2">
+        <v>0.6421</v>
+      </c>
+      <c r="Q2">
+        <v>0.67920000000000003</v>
+      </c>
+      <c r="R2">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="S2">
+        <v>0.67354999999999998</v>
+      </c>
+      <c r="T2">
+        <v>0.67454999999999998</v>
+      </c>
+      <c r="U2">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="V2">
+        <v>0.64910000000000001</v>
+      </c>
+      <c r="W2">
+        <v>0.67359999999999998</v>
+      </c>
+      <c r="X2">
+        <v>0.64205000000000001</v>
+      </c>
+      <c r="Y2">
+        <v>0.44345000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="AA2">
+        <v>0.64259999999999995</v>
+      </c>
+      <c r="AB2">
+        <v>0.67084999999999995</v>
+      </c>
+      <c r="AC2">
+        <v>0.90085000000000004</v>
+      </c>
+      <c r="AD2">
         <v>0.66774999999999995</v>
       </c>
-      <c r="C2">
-        <v>0.43090000000000001</v>
-      </c>
-      <c r="D2">
-        <v>0.66539999999999999</v>
-      </c>
-      <c r="E2">
-        <v>0.64680000000000004</v>
-      </c>
-      <c r="F2">
-        <v>0.92010000000000003</v>
-      </c>
-      <c r="G2">
-        <v>0.43595</v>
-      </c>
-      <c r="H2">
-        <v>0.66090000000000004</v>
-      </c>
-      <c r="I2">
-        <v>0.68454999999999999</v>
-      </c>
-      <c r="J2">
-        <v>0.6663</v>
-      </c>
-      <c r="K2">
-        <v>0.43869999999999998</v>
-      </c>
-      <c r="L2">
-        <v>0.68189999999999995</v>
-      </c>
-      <c r="M2">
-        <v>0.66984999999999995</v>
-      </c>
-      <c r="N2">
-        <v>0.44245000000000001</v>
-      </c>
-      <c r="O2">
-        <v>0.65759999999999996</v>
-      </c>
-      <c r="P2">
-        <v>0.64839999999999998</v>
-      </c>
-      <c r="Q2">
-        <v>0.65169999999999995</v>
-      </c>
-      <c r="R2">
-        <v>0.91535</v>
-      </c>
-      <c r="S2">
-        <v>0.44155</v>
-      </c>
-      <c r="T2">
-        <v>0.67154999999999998</v>
-      </c>
-      <c r="U2">
-        <v>0.65080000000000005</v>
-      </c>
-      <c r="V2">
-        <v>0.65434999999999999</v>
-      </c>
-      <c r="W2">
-        <v>0.66239999999999999</v>
-      </c>
-      <c r="X2">
+      <c r="AE2">
+        <v>0.67264999999999997</v>
+      </c>
+      <c r="AF2">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="AG2">
+        <v>0.64964999999999995</v>
+      </c>
+      <c r="AH2">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="AI2">
+        <v>0.4385</v>
+      </c>
+      <c r="AJ2">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="AK2">
+        <v>0.65375000000000005</v>
+      </c>
+      <c r="AL2">
         <v>0.67695000000000005</v>
       </c>
-      <c r="Y2">
-        <v>0.64695000000000003</v>
-      </c>
-      <c r="Z2">
-        <v>0.66715000000000002</v>
-      </c>
-      <c r="AA2">
-        <v>0.6673</v>
-      </c>
-      <c r="AB2">
-        <v>0.67664999999999997</v>
-      </c>
-      <c r="AC2">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="AD2">
-        <v>0.66049999999999998</v>
-      </c>
-      <c r="AE2">
-        <v>0.67920000000000003</v>
-      </c>
-      <c r="AF2">
-        <v>0.66585000000000005</v>
-      </c>
-      <c r="AG2">
-        <v>0.68325000000000002</v>
-      </c>
-      <c r="AH2">
-        <v>0.68335000000000001</v>
-      </c>
-      <c r="AI2">
-        <v>0.68669999999999998</v>
-      </c>
-      <c r="AJ2">
-        <v>0.66259999999999997</v>
-      </c>
-      <c r="AK2">
-        <v>0.67364999999999997</v>
-      </c>
-      <c r="AL2">
-        <v>0.66169999999999995</v>
-      </c>
       <c r="AM2">
-        <v>0.68835000000000002</v>
+        <v>0.66964999999999997</v>
       </c>
       <c r="AN2">
-        <v>0.65654999999999997</v>
+        <v>0.63419999999999999</v>
       </c>
       <c r="AO2">
-        <v>0.64970000000000006</v>
+        <v>0.45034999999999997</v>
       </c>
       <c r="AP2">
-        <v>0.64605000000000001</v>
+        <v>0.65944999999999998</v>
       </c>
       <c r="AQ2">
-        <v>0.67735000000000001</v>
+        <v>0.66654999999999998</v>
       </c>
       <c r="AR2">
-        <v>0.67830000000000001</v>
+        <v>0.68469999999999998</v>
       </c>
       <c r="AS2">
-        <v>0.66195000000000004</v>
+        <v>0.6492</v>
       </c>
       <c r="AT2">
-        <v>0.68240000000000001</v>
+        <v>0.9052</v>
       </c>
       <c r="AU2">
-        <v>0.66064999999999996</v>
+        <v>0.44450000000000001</v>
       </c>
       <c r="AV2">
-        <v>0.43330000000000002</v>
+        <v>0.66605000000000003</v>
       </c>
       <c r="AW2">
-        <v>0.68084999999999996</v>
+        <v>0.45240000000000002</v>
       </c>
       <c r="AX2">
-        <v>0.65725</v>
+        <v>0.66644999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.63234999999999997</v>
+        <v>0.60960000000000003</v>
       </c>
       <c r="B3">
-        <v>0.79854999999999998</v>
+        <v>0.41110000000000002</v>
       </c>
       <c r="C3">
-        <v>0.41620000000000001</v>
+        <v>0.62585000000000002</v>
       </c>
       <c r="D3">
-        <v>0.91649999999999998</v>
+        <v>0.59635000000000005</v>
       </c>
       <c r="E3">
-        <v>0.84294999999999998</v>
+        <v>0.62465000000000004</v>
       </c>
       <c r="F3">
-        <v>0.86750000000000005</v>
+        <v>0.65720000000000001</v>
       </c>
       <c r="G3">
-        <v>0.39889999999999998</v>
+        <v>0.62319999999999998</v>
       </c>
       <c r="H3">
-        <v>0.62775000000000003</v>
+        <v>0.40489999999999998</v>
       </c>
       <c r="I3">
-        <v>0.88844999999999996</v>
+        <v>0.88339999999999996</v>
       </c>
       <c r="J3">
-        <v>0.64115</v>
+        <v>0.64610000000000001</v>
       </c>
       <c r="K3">
-        <v>0.60970000000000002</v>
+        <v>0.63734999999999997</v>
       </c>
       <c r="L3">
-        <v>0.63729999999999998</v>
+        <v>0.63375000000000004</v>
       </c>
       <c r="M3">
-        <v>0.64895000000000003</v>
+        <v>0.65429999999999999</v>
       </c>
       <c r="N3">
-        <v>0.4158</v>
+        <v>0.91234999999999999</v>
       </c>
       <c r="O3">
-        <v>0.60085</v>
+        <v>0.61065000000000003</v>
       </c>
       <c r="P3">
-        <v>0.63754999999999995</v>
+        <v>0.57404999999999995</v>
       </c>
       <c r="Q3">
-        <v>0.61250000000000004</v>
+        <v>0.64754999999999996</v>
       </c>
       <c r="R3">
-        <v>0.91449999999999998</v>
+        <v>0.81855</v>
       </c>
       <c r="S3">
-        <v>0.41649999999999998</v>
+        <v>0.60585</v>
       </c>
       <c r="T3">
-        <v>0.63795000000000002</v>
+        <v>0.66439999999999999</v>
       </c>
       <c r="U3">
-        <v>0.62219999999999998</v>
+        <v>0.58404999999999996</v>
       </c>
       <c r="V3">
-        <v>0.60834999999999995</v>
+        <v>0.58635000000000004</v>
       </c>
       <c r="W3">
-        <v>0.63214999999999999</v>
+        <v>0.60389999999999999</v>
       </c>
       <c r="X3">
-        <v>0.66025</v>
+        <v>0.58130000000000004</v>
       </c>
       <c r="Y3">
-        <v>0.59294999999999998</v>
+        <v>0.66279999999999994</v>
       </c>
       <c r="Z3">
-        <v>0.60719999999999996</v>
+        <v>0.81679999999999997</v>
       </c>
       <c r="AA3">
-        <v>0.84350000000000003</v>
+        <v>0.59240000000000004</v>
       </c>
       <c r="AB3">
-        <v>0.64910000000000001</v>
+        <v>0.622</v>
       </c>
       <c r="AC3">
-        <v>0.87290000000000001</v>
+        <v>0.85724999999999996</v>
       </c>
       <c r="AD3">
-        <v>0.84714999999999996</v>
+        <v>0.63024999999999998</v>
       </c>
       <c r="AE3">
-        <v>0.65649999999999997</v>
+        <v>0.60219999999999996</v>
       </c>
       <c r="AF3">
-        <v>0.82455000000000001</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="AG3">
-        <v>0.88744999999999996</v>
+        <v>0.62870000000000004</v>
       </c>
       <c r="AH3">
-        <v>0.66315000000000002</v>
+        <v>0.622</v>
       </c>
       <c r="AI3">
-        <v>0.63895000000000002</v>
+        <v>0.39695000000000003</v>
       </c>
       <c r="AJ3">
-        <v>0.61814999999999998</v>
+        <v>0.67349999999999999</v>
       </c>
       <c r="AK3">
-        <v>0.65064999999999995</v>
+        <v>0.57494999999999996</v>
       </c>
       <c r="AL3">
-        <v>0.63280000000000003</v>
+        <v>0.63790000000000002</v>
       </c>
       <c r="AM3">
-        <v>0.6462</v>
+        <v>0.84694999999999998</v>
       </c>
       <c r="AN3">
-        <v>0.63724999999999998</v>
+        <v>0.61004999999999998</v>
       </c>
       <c r="AO3">
-        <v>0.59009999999999996</v>
+        <v>0.42415000000000003</v>
       </c>
       <c r="AP3">
-        <v>0.62375000000000003</v>
+        <v>0.59419999999999995</v>
       </c>
       <c r="AQ3">
-        <v>0.64395000000000002</v>
+        <v>0.64715</v>
       </c>
       <c r="AR3">
-        <v>0.64300000000000002</v>
+        <v>0.64039999999999997</v>
       </c>
       <c r="AS3">
-        <v>0.66500000000000004</v>
+        <v>0.64710000000000001</v>
       </c>
       <c r="AT3">
-        <v>0.61939999999999995</v>
+        <v>0.82525000000000004</v>
       </c>
       <c r="AU3">
-        <v>0.62414999999999998</v>
+        <v>0.41504999999999997</v>
       </c>
       <c r="AV3">
-        <v>0.38109999999999999</v>
+        <v>0.62524999999999997</v>
       </c>
       <c r="AW3">
-        <v>0.63290000000000002</v>
+        <v>0.42680000000000001</v>
       </c>
       <c r="AX3">
-        <v>0.56630000000000003</v>
+        <v>0.61234999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.82704999999999995</v>
+        <v>0.54979999999999996</v>
       </c>
       <c r="B4">
-        <v>0.79884999999999995</v>
+        <v>0.37445000000000001</v>
       </c>
       <c r="C4">
-        <v>0.33615</v>
+        <v>0.56205000000000005</v>
       </c>
       <c r="D4">
-        <v>0.79844999999999999</v>
+        <v>0.54415000000000002</v>
       </c>
       <c r="E4">
-        <v>0.81254999999999999</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="F4">
-        <v>0.80694999999999995</v>
+        <v>0.87765000000000004</v>
       </c>
       <c r="G4">
-        <v>0.376</v>
+        <v>0.59</v>
       </c>
       <c r="H4">
-        <v>0.51990000000000003</v>
+        <v>0.38159999999999999</v>
       </c>
       <c r="I4">
-        <v>0.88619999999999999</v>
+        <v>0.82565</v>
       </c>
       <c r="J4">
-        <v>0.56084999999999996</v>
+        <v>0.57530000000000003</v>
       </c>
       <c r="K4">
-        <v>0.53100000000000003</v>
+        <v>0.57584999999999997</v>
       </c>
       <c r="L4">
-        <v>0.58599999999999997</v>
+        <v>0.57264999999999999</v>
       </c>
       <c r="M4">
-        <v>0.85494999999999999</v>
+        <v>0.63214999999999999</v>
       </c>
       <c r="N4">
-        <v>0.3659</v>
+        <v>0.87485000000000002</v>
       </c>
       <c r="O4">
-        <v>0.81205000000000005</v>
+        <v>0.50760000000000005</v>
       </c>
       <c r="P4">
-        <v>0.56864999999999999</v>
+        <v>0.53564999999999996</v>
       </c>
       <c r="Q4">
-        <v>0.54344999999999999</v>
+        <v>0.86439999999999995</v>
       </c>
       <c r="R4">
-        <v>0.91464999999999996</v>
+        <v>0.747</v>
       </c>
       <c r="S4">
-        <v>0.75460000000000005</v>
+        <v>0.55859999999999999</v>
       </c>
       <c r="T4">
-        <v>0.60904999999999998</v>
+        <v>0.64790000000000003</v>
       </c>
       <c r="U4">
-        <v>0.75</v>
+        <v>0.50534999999999997</v>
       </c>
       <c r="V4">
-        <v>0.58674999999999999</v>
+        <v>0.59470000000000001</v>
       </c>
       <c r="W4">
-        <v>0.61819999999999997</v>
+        <v>0.55615000000000003</v>
       </c>
       <c r="X4">
-        <v>0.58689999999999998</v>
+        <v>0.5444</v>
       </c>
       <c r="Y4">
-        <v>0.53205000000000002</v>
+        <v>0.60585</v>
       </c>
       <c r="Z4">
-        <v>0.55925000000000002</v>
+        <v>0.74209999999999998</v>
       </c>
       <c r="AA4">
-        <v>0.76275000000000004</v>
+        <v>0.50280000000000002</v>
       </c>
       <c r="AB4">
-        <v>0.60019999999999996</v>
+        <v>0.58430000000000004</v>
       </c>
       <c r="AC4">
-        <v>0.83155000000000001</v>
+        <v>0.74145000000000005</v>
       </c>
       <c r="AD4">
-        <v>0.75575000000000003</v>
+        <v>0.77990000000000004</v>
       </c>
       <c r="AE4">
-        <v>0.83384999999999998</v>
+        <v>0.55805000000000005</v>
       </c>
       <c r="AF4">
-        <v>0.75824999999999998</v>
+        <v>0.35704999999999998</v>
       </c>
       <c r="AG4">
-        <v>0.82874999999999999</v>
+        <v>0.61529999999999996</v>
       </c>
       <c r="AH4">
-        <v>0.64005000000000001</v>
+        <v>0.54039999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.53810000000000002</v>
+        <v>0.53995000000000004</v>
       </c>
       <c r="AJ4">
-        <v>0.52315</v>
+        <v>0.7198</v>
       </c>
       <c r="AK4">
-        <v>0.61960000000000004</v>
+        <v>0.57135000000000002</v>
       </c>
       <c r="AL4">
-        <v>0.57164999999999999</v>
+        <v>0.56805000000000005</v>
       </c>
       <c r="AM4">
-        <v>0.59840000000000004</v>
+        <v>0.75880000000000003</v>
       </c>
       <c r="AN4">
-        <v>0.55505000000000004</v>
+        <v>0.52834999999999999</v>
       </c>
       <c r="AO4">
-        <v>0.51970000000000005</v>
+        <v>0.3856</v>
       </c>
       <c r="AP4">
-        <v>0.58420000000000005</v>
+        <v>0.54915000000000003</v>
       </c>
       <c r="AQ4">
-        <v>0.58174999999999999</v>
+        <v>0.87314999999999998</v>
       </c>
       <c r="AR4">
-        <v>0.83055000000000001</v>
+        <v>0.62180000000000002</v>
       </c>
       <c r="AS4">
-        <v>0.624</v>
+        <v>0.62314999999999998</v>
       </c>
       <c r="AT4">
-        <v>0.54185000000000005</v>
+        <v>0.82115000000000005</v>
       </c>
       <c r="AU4">
-        <v>0.57310000000000005</v>
+        <v>0.60409999999999997</v>
       </c>
       <c r="AV4">
-        <v>0.5464</v>
+        <v>0.61350000000000005</v>
       </c>
       <c r="AW4">
-        <v>0.61270000000000002</v>
+        <v>0.37619999999999998</v>
       </c>
       <c r="AX4">
-        <v>0.53885000000000005</v>
+        <v>0.56105000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.81869999999999998</v>
+        <v>0.46639999999999998</v>
       </c>
       <c r="B5">
-        <v>0.78774999999999995</v>
+        <v>0.30295</v>
       </c>
       <c r="C5">
-        <v>0.44119999999999998</v>
+        <v>0.49049999999999999</v>
       </c>
       <c r="D5">
-        <v>0.71819999999999995</v>
+        <v>0.49064999999999998</v>
       </c>
       <c r="E5">
-        <v>0.71830000000000005</v>
+        <v>0.7329</v>
       </c>
       <c r="F5">
-        <v>0.71460000000000001</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="G5">
-        <v>0.31655</v>
+        <v>0.56405000000000005</v>
       </c>
       <c r="H5">
-        <v>0.41165000000000002</v>
+        <v>0.30890000000000001</v>
       </c>
       <c r="I5">
-        <v>0.87395</v>
+        <v>0.79254999999999998</v>
       </c>
       <c r="J5">
-        <v>0.52254999999999996</v>
+        <v>0.52975000000000005</v>
       </c>
       <c r="K5">
-        <v>0.61294999999999999</v>
+        <v>0.46639999999999998</v>
       </c>
       <c r="L5">
-        <v>0.47175</v>
+        <v>0.72950000000000004</v>
       </c>
       <c r="M5">
-        <v>0.88039999999999996</v>
+        <v>0.59125000000000005</v>
       </c>
       <c r="N5">
-        <v>0.46310000000000001</v>
+        <v>0.751</v>
       </c>
       <c r="O5">
-        <v>0.74780000000000002</v>
+        <v>0.45240000000000002</v>
       </c>
       <c r="P5">
-        <v>0.76790000000000003</v>
+        <v>0.49559999999999998</v>
       </c>
       <c r="Q5">
-        <v>0.7208</v>
+        <v>0.755</v>
       </c>
       <c r="R5">
-        <v>0.86424999999999996</v>
+        <v>0.68994999999999995</v>
       </c>
       <c r="S5">
-        <v>0.55779999999999996</v>
+        <v>0.48325000000000001</v>
       </c>
       <c r="T5">
-        <v>0.60880000000000001</v>
+        <v>0.5665</v>
       </c>
       <c r="U5">
-        <v>0.59519999999999995</v>
+        <v>0.48644999999999999</v>
       </c>
       <c r="V5">
-        <v>0.52690000000000003</v>
+        <v>0.51585000000000003</v>
       </c>
       <c r="W5">
-        <v>0.52644999999999997</v>
+        <v>0.45079999999999998</v>
       </c>
       <c r="X5">
-        <v>0.80740000000000001</v>
+        <v>0.45745000000000002</v>
       </c>
       <c r="Y5">
-        <v>0.4496</v>
+        <v>0.55235000000000001</v>
       </c>
       <c r="Z5">
-        <v>0.5726</v>
+        <v>0.72440000000000004</v>
       </c>
       <c r="AA5">
-        <v>0.63995000000000002</v>
+        <v>0.41225000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.49830000000000002</v>
+        <v>0.59130000000000005</v>
       </c>
       <c r="AC5">
-        <v>0.70760000000000001</v>
+        <v>0.77405000000000002</v>
       </c>
       <c r="AD5">
-        <v>0.56569999999999998</v>
+        <v>0.75314999999999999</v>
       </c>
       <c r="AE5">
-        <v>0.74095</v>
+        <v>0.46379999999999999</v>
       </c>
       <c r="AF5">
-        <v>0.69299999999999995</v>
+        <v>0.31724999999999998</v>
       </c>
       <c r="AG5">
-        <v>0.80774999999999997</v>
+        <v>0.60824999999999996</v>
       </c>
       <c r="AH5">
-        <v>0.61960000000000004</v>
+        <v>0.42435</v>
       </c>
       <c r="AI5">
-        <v>0.43120000000000003</v>
+        <v>0.44235000000000002</v>
       </c>
       <c r="AJ5">
-        <v>0.45269999999999999</v>
+        <v>0.70020000000000004</v>
       </c>
       <c r="AK5">
-        <v>0.52659999999999996</v>
+        <v>0.51759999999999995</v>
       </c>
       <c r="AL5">
-        <v>0.54925000000000002</v>
+        <v>0.79149999999999998</v>
       </c>
       <c r="AM5">
-        <v>0.57189999999999996</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="AN5">
-        <v>0.58740000000000003</v>
+        <v>0.45224999999999999</v>
       </c>
       <c r="AO5">
-        <v>0.51700000000000002</v>
+        <v>0.29554999999999998</v>
       </c>
       <c r="AP5">
-        <v>0.52175000000000005</v>
+        <v>0.43064999999999998</v>
       </c>
       <c r="AQ5">
-        <v>0.44464999999999999</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="AR5">
-        <v>0.67635000000000001</v>
+        <v>0.60919999999999996</v>
       </c>
       <c r="AS5">
-        <v>0.60189999999999999</v>
+        <v>0.58979999999999999</v>
       </c>
       <c r="AT5">
-        <v>0.76865000000000006</v>
+        <v>0.78610000000000002</v>
       </c>
       <c r="AU5">
-        <v>0.6109</v>
+        <v>0.49759999999999999</v>
       </c>
       <c r="AV5">
-        <v>0.56555</v>
+        <v>0.50395000000000001</v>
       </c>
       <c r="AW5">
-        <v>0.61955000000000005</v>
+        <v>0.32485000000000003</v>
       </c>
       <c r="AX5">
-        <v>0.48115000000000002</v>
+        <v>0.41820000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.77380000000000004</v>
+        <v>0.40334999999999999</v>
       </c>
       <c r="B6">
-        <v>0.76454999999999995</v>
+        <v>0.30330000000000001</v>
       </c>
       <c r="C6">
-        <v>0.66749999999999998</v>
+        <v>0.62909999999999999</v>
       </c>
       <c r="D6">
-        <v>0.65239999999999998</v>
+        <v>0.71020000000000005</v>
       </c>
       <c r="E6">
-        <v>0.70884999999999998</v>
+        <v>0.70150000000000001</v>
       </c>
       <c r="F6">
-        <v>0.65785000000000005</v>
+        <v>0.77185000000000004</v>
       </c>
       <c r="G6">
-        <v>0.23285</v>
+        <v>0.79349999999999998</v>
       </c>
       <c r="H6">
-        <v>0.317</v>
+        <v>0.30854999999999999</v>
       </c>
       <c r="I6">
-        <v>0.77634999999999998</v>
+        <v>0.79454999999999998</v>
       </c>
       <c r="J6">
-        <v>0.42575000000000002</v>
+        <v>0.38779999999999998</v>
       </c>
       <c r="K6">
-        <v>0.6734</v>
+        <v>0.56610000000000005</v>
       </c>
       <c r="L6">
-        <v>0.52334999999999998</v>
+        <v>0.53839999999999999</v>
       </c>
       <c r="M6">
-        <v>0.80740000000000001</v>
+        <v>0.62150000000000005</v>
       </c>
       <c r="N6">
-        <v>0.30649999999999999</v>
+        <v>0.59935000000000005</v>
       </c>
       <c r="O6">
-        <v>0.70615000000000006</v>
+        <v>0.31225000000000003</v>
       </c>
       <c r="P6">
-        <v>0.60104999999999997</v>
+        <v>0.60940000000000005</v>
       </c>
       <c r="Q6">
-        <v>0.51685000000000003</v>
+        <v>0.71204999999999996</v>
       </c>
       <c r="R6">
-        <v>0.83245000000000002</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="S6">
-        <v>0.49959999999999999</v>
+        <v>0.37935000000000002</v>
       </c>
       <c r="T6">
-        <v>0.59289999999999998</v>
+        <v>0.4128</v>
       </c>
       <c r="U6">
-        <v>0.54844999999999999</v>
+        <v>0.496</v>
       </c>
       <c r="V6">
-        <v>0.40529999999999999</v>
+        <v>0.39465</v>
       </c>
       <c r="W6">
-        <v>0.49170000000000003</v>
+        <v>0.42230000000000001</v>
       </c>
       <c r="X6">
-        <v>0.88539999999999996</v>
+        <v>0.34375</v>
       </c>
       <c r="Y6">
-        <v>0.50519999999999998</v>
+        <v>0.47294999999999998</v>
       </c>
       <c r="Z6">
-        <v>0.42964999999999998</v>
+        <v>0.64775000000000005</v>
       </c>
       <c r="AA6">
-        <v>0.55979999999999996</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="AB6">
-        <v>0.32934999999999998</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="AC6">
-        <v>0.78134999999999999</v>
+        <v>0.70379999999999998</v>
       </c>
       <c r="AD6">
-        <v>0.46074999999999999</v>
+        <v>0.63675000000000004</v>
       </c>
       <c r="AE6">
-        <v>0.58884999999999998</v>
+        <v>0.38379999999999997</v>
       </c>
       <c r="AF6">
-        <v>0.64159999999999995</v>
+        <v>0.54779999999999995</v>
       </c>
       <c r="AG6">
-        <v>0.58930000000000005</v>
+        <v>0.51139999999999997</v>
       </c>
       <c r="AH6">
-        <v>0.58294999999999997</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="AI6">
-        <v>0.36335000000000001</v>
+        <v>0.31974999999999998</v>
       </c>
       <c r="AJ6">
-        <v>0.38729999999999998</v>
+        <v>0.79859999999999998</v>
       </c>
       <c r="AK6">
-        <v>0.72135000000000005</v>
+        <v>0.63039999999999996</v>
       </c>
       <c r="AL6">
-        <v>0.53574999999999995</v>
+        <v>0.70965</v>
       </c>
       <c r="AM6">
-        <v>0.53839999999999999</v>
+        <v>0.54164999999999996</v>
       </c>
       <c r="AN6">
-        <v>0.48125000000000001</v>
+        <v>0.41520000000000001</v>
       </c>
       <c r="AO6">
-        <v>0.69299999999999995</v>
+        <v>0.21490000000000001</v>
       </c>
       <c r="AP6">
-        <v>0.36969999999999997</v>
+        <v>0.34284999999999999</v>
       </c>
       <c r="AQ6">
-        <v>0.36</v>
+        <v>0.73885000000000001</v>
       </c>
       <c r="AR6">
-        <v>0.61765000000000003</v>
+        <v>0.72184999999999999</v>
       </c>
       <c r="AS6">
-        <v>0.59424999999999994</v>
+        <v>0.47585</v>
       </c>
       <c r="AT6">
-        <v>0.75034999999999996</v>
+        <v>0.61944999999999995</v>
       </c>
       <c r="AU6">
-        <v>0.75295000000000001</v>
+        <v>0.5484</v>
       </c>
       <c r="AV6">
-        <v>0.50505</v>
+        <v>0.40344999999999998</v>
       </c>
       <c r="AW6">
-        <v>0.62070000000000003</v>
+        <v>0.36020000000000002</v>
       </c>
       <c r="AX6">
-        <v>0.69889999999999997</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.76305000000000001</v>
+        <v>0.48665000000000003</v>
       </c>
       <c r="B7">
-        <v>0.56274999999999997</v>
+        <v>0.40134999999999998</v>
       </c>
       <c r="C7">
-        <v>0.70479999999999998</v>
+        <v>0.61160000000000003</v>
       </c>
       <c r="D7">
-        <v>0.63965000000000005</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="E7">
-        <v>0.78790000000000004</v>
+        <v>0.59004999999999996</v>
       </c>
       <c r="F7">
-        <v>0.48554999999999998</v>
+        <v>0.62329999999999997</v>
       </c>
       <c r="G7">
-        <v>0.13789999999999999</v>
+        <v>0.73334999999999995</v>
       </c>
       <c r="H7">
-        <v>0.67654999999999998</v>
+        <v>0.40084999999999998</v>
       </c>
       <c r="I7">
-        <v>0.73980000000000001</v>
+        <v>0.70115000000000005</v>
       </c>
       <c r="J7">
-        <v>0.46765000000000001</v>
+        <v>0.27815000000000001</v>
       </c>
       <c r="K7">
-        <v>0.60555000000000003</v>
+        <v>0.37964999999999999</v>
       </c>
       <c r="L7">
-        <v>0.35349999999999998</v>
+        <v>0.44614999999999999</v>
       </c>
       <c r="M7">
-        <v>0.67935000000000001</v>
+        <v>0.45529999999999998</v>
       </c>
       <c r="N7">
-        <v>0.25180000000000002</v>
+        <v>0.55945</v>
       </c>
       <c r="O7">
-        <v>0.60550000000000004</v>
+        <v>0.1875</v>
       </c>
       <c r="P7">
-        <v>0.50529999999999997</v>
+        <v>0.32755000000000001</v>
       </c>
       <c r="Q7">
-        <v>0.27925</v>
+        <v>0.76390000000000002</v>
       </c>
       <c r="R7">
-        <v>0.91954999999999998</v>
+        <v>0.4647</v>
       </c>
       <c r="S7">
-        <v>0.37864999999999999</v>
+        <v>0.32455000000000001</v>
       </c>
       <c r="T7">
-        <v>0.64115</v>
+        <v>0.376</v>
       </c>
       <c r="U7">
-        <v>0.56284999999999996</v>
+        <v>0.64659999999999995</v>
       </c>
       <c r="V7">
-        <v>0.31530000000000002</v>
+        <v>0.35720000000000002</v>
       </c>
       <c r="W7">
-        <v>0.71665000000000001</v>
+        <v>0.34115000000000001</v>
       </c>
       <c r="X7">
-        <v>0.83650000000000002</v>
+        <v>0.37545000000000001</v>
       </c>
       <c r="Y7">
-        <v>0.6</v>
+        <v>0.43290000000000001</v>
       </c>
       <c r="Z7">
-        <v>0.37580000000000002</v>
+        <v>0.57215000000000005</v>
       </c>
       <c r="AA7">
-        <v>0.56850000000000001</v>
+        <v>0.49914999999999998</v>
       </c>
       <c r="AB7">
-        <v>0.29975000000000002</v>
+        <v>0.65944999999999998</v>
       </c>
       <c r="AC7">
-        <v>0.77775000000000005</v>
+        <v>0.54374999999999996</v>
       </c>
       <c r="AD7">
-        <v>0.59089999999999998</v>
+        <v>0.79415000000000002</v>
       </c>
       <c r="AE7">
-        <v>0.54505000000000003</v>
+        <v>0.38519999999999999</v>
       </c>
       <c r="AF7">
-        <v>0.60919999999999996</v>
+        <v>0.51529999999999998</v>
       </c>
       <c r="AG7">
-        <v>0.50324999999999998</v>
+        <v>0.45384999999999998</v>
       </c>
       <c r="AH7">
-        <v>0.58545000000000003</v>
+        <v>0.15784999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.36995</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="AJ7">
-        <v>0.32579999999999998</v>
+        <v>0.64275000000000004</v>
       </c>
       <c r="AK7">
-        <v>0.60729999999999995</v>
+        <v>0.46855000000000002</v>
       </c>
       <c r="AL7">
-        <v>0.40455000000000002</v>
+        <v>0.58304999999999996</v>
       </c>
       <c r="AM7">
-        <v>0.32119999999999999</v>
+        <v>0.56669999999999998</v>
       </c>
       <c r="AN7">
-        <v>0.53459999999999996</v>
+        <v>0.35615000000000002</v>
       </c>
       <c r="AO7">
-        <v>0.52200000000000002</v>
+        <v>0.25469999999999998</v>
       </c>
       <c r="AP7">
-        <v>0.3463</v>
+        <v>0.20615</v>
       </c>
       <c r="AQ7">
-        <v>0.23355000000000001</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="AR7">
-        <v>0.58350000000000002</v>
+        <v>0.74565000000000003</v>
       </c>
       <c r="AS7">
-        <v>0.6895</v>
+        <v>0.44964999999999999</v>
       </c>
       <c r="AT7">
-        <v>0.48814999999999997</v>
+        <v>0.34605000000000002</v>
       </c>
       <c r="AU7">
-        <v>0.57050000000000001</v>
+        <v>0.45650000000000002</v>
       </c>
       <c r="AV7">
-        <v>0.45684999999999998</v>
+        <v>0.39760000000000001</v>
       </c>
       <c r="AW7">
-        <v>0.80145</v>
+        <v>0.28294999999999998</v>
       </c>
       <c r="AX7">
-        <v>0.61955000000000005</v>
+        <v>0.55835000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.69320000000000004</v>
+        <v>0.40255000000000002</v>
       </c>
       <c r="B8">
-        <v>0.42775000000000002</v>
+        <v>0.621</v>
       </c>
       <c r="C8">
-        <v>0.56125000000000003</v>
+        <v>0.54044999999999999</v>
       </c>
       <c r="D8">
-        <v>0.54495000000000005</v>
+        <v>0.77524999999999999</v>
       </c>
       <c r="E8">
-        <v>0.71604999999999996</v>
+        <v>0.43824999999999997</v>
       </c>
       <c r="F8">
-        <v>0.68874999999999997</v>
+        <v>0.61909999999999998</v>
       </c>
       <c r="G8">
-        <v>4.07E-2</v>
+        <v>0.80589999999999995</v>
       </c>
       <c r="H8">
-        <v>0.80169999999999997</v>
+        <v>0.35120000000000001</v>
       </c>
       <c r="I8">
-        <v>0.4677</v>
+        <v>0.41710000000000003</v>
       </c>
       <c r="J8">
-        <v>0.47310000000000002</v>
+        <v>0.25764999999999999</v>
       </c>
       <c r="K8">
-        <v>0.44024999999999997</v>
+        <v>0.18235000000000001</v>
       </c>
       <c r="L8">
-        <v>0.16009999999999999</v>
+        <v>0.48980000000000001</v>
       </c>
       <c r="M8">
-        <v>0.58499999999999996</v>
+        <v>0.61929999999999996</v>
       </c>
       <c r="N8">
-        <v>0.34310000000000002</v>
+        <v>0.41075</v>
       </c>
       <c r="O8">
-        <v>0.7732</v>
+        <v>9.5299999999999996E-2</v>
       </c>
       <c r="P8">
-        <v>0.41970000000000002</v>
+        <v>0.33550000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.15440000000000001</v>
+        <v>0.77249999999999996</v>
       </c>
       <c r="R8">
-        <v>0.91639999999999999</v>
+        <v>0.49125000000000002</v>
       </c>
       <c r="S8">
-        <v>0.28565000000000002</v>
+        <v>0.45429999999999998</v>
       </c>
       <c r="T8">
-        <v>0.49545</v>
+        <v>0.44645000000000001</v>
       </c>
       <c r="U8">
-        <v>0.73165000000000002</v>
+        <v>0.79744999999999999</v>
       </c>
       <c r="V8">
-        <v>0.36875000000000002</v>
+        <v>0.43654999999999999</v>
       </c>
       <c r="W8">
-        <v>0.67584999999999995</v>
+        <v>0.38819999999999999</v>
       </c>
       <c r="X8">
-        <v>0.71930000000000005</v>
+        <v>0.39245000000000002</v>
       </c>
       <c r="Y8">
-        <v>0.6573</v>
+        <v>0.2646</v>
       </c>
       <c r="Z8">
-        <v>0.66679999999999995</v>
+        <v>0.55984999999999996</v>
       </c>
       <c r="AA8">
-        <v>0.44314999999999999</v>
+        <v>0.54564999999999997</v>
       </c>
       <c r="AB8">
-        <v>0.56915000000000004</v>
+        <v>0.66164999999999996</v>
       </c>
       <c r="AC8">
-        <v>0.87865000000000004</v>
+        <v>0.43319999999999997</v>
       </c>
       <c r="AD8">
-        <v>0.40175</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="AE8">
-        <v>0.7258</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="AF8">
-        <v>0.65329999999999999</v>
+        <v>0.55845</v>
       </c>
       <c r="AG8">
-        <v>0.47804999999999997</v>
+        <v>0.41365000000000002</v>
       </c>
       <c r="AH8">
-        <v>0.55044999999999999</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="AI8">
-        <v>0.27675</v>
+        <v>0.45155000000000001</v>
       </c>
       <c r="AJ8">
-        <v>0.2732</v>
+        <v>0.53595000000000004</v>
       </c>
       <c r="AK8">
-        <v>0.33245000000000002</v>
+        <v>0.32919999999999999</v>
       </c>
       <c r="AL8">
-        <v>0.41</v>
+        <v>0.57669999999999999</v>
       </c>
       <c r="AM8">
-        <v>0.37574999999999997</v>
+        <v>0.41875000000000001</v>
       </c>
       <c r="AN8">
-        <v>0.48715000000000003</v>
+        <v>0.36430000000000001</v>
       </c>
       <c r="AO8">
-        <v>0.67684999999999995</v>
+        <v>0.3427</v>
       </c>
       <c r="AP8">
-        <v>0.40639999999999998</v>
+        <v>0.12214999999999999</v>
       </c>
       <c r="AQ8">
-        <v>0.22850000000000001</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="AR8">
-        <v>0.56035000000000001</v>
+        <v>0.71414999999999995</v>
       </c>
       <c r="AS8">
-        <v>0.7923</v>
+        <v>0.43290000000000001</v>
       </c>
       <c r="AT8">
-        <v>0.64059999999999995</v>
+        <v>0.49759999999999999</v>
       </c>
       <c r="AU8">
-        <v>0.61950000000000005</v>
+        <v>0.41789999999999999</v>
       </c>
       <c r="AV8">
-        <v>0.36094999999999999</v>
+        <v>0.34870000000000001</v>
       </c>
       <c r="AW8">
-        <v>0.64970000000000006</v>
+        <v>0.17715</v>
       </c>
       <c r="AX8">
-        <v>0.4647</v>
+        <v>0.40484999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.53954999999999997</v>
+        <v>0.26684999999999998</v>
       </c>
       <c r="B9">
-        <v>0.72019999999999995</v>
+        <v>0.41904999999999998</v>
       </c>
       <c r="C9">
-        <v>0.54895000000000005</v>
+        <v>0.54869999999999997</v>
       </c>
       <c r="D9">
-        <v>0.56240000000000001</v>
+        <v>0.86450000000000005</v>
       </c>
       <c r="E9">
-        <v>0.435</v>
+        <v>0.51114999999999999</v>
       </c>
       <c r="F9">
-        <v>0.67715000000000003</v>
+        <v>0.51559999999999995</v>
       </c>
       <c r="G9">
-        <v>9.665E-2</v>
+        <v>0.64324999999999999</v>
       </c>
       <c r="H9">
-        <v>0.5645</v>
+        <v>0.36120000000000002</v>
       </c>
       <c r="I9">
-        <v>0.35094999999999998</v>
+        <v>0.25335000000000002</v>
       </c>
       <c r="J9">
-        <v>0.79054999999999997</v>
+        <v>0.3105</v>
       </c>
       <c r="K9">
-        <v>0.43895000000000001</v>
+        <v>0.19864999999999999</v>
       </c>
       <c r="L9">
-        <v>0.24015</v>
+        <v>0.37185000000000001</v>
       </c>
       <c r="M9">
-        <v>0.58294999999999997</v>
+        <v>0.59414999999999996</v>
       </c>
       <c r="N9">
-        <v>0.30649999999999999</v>
+        <v>0.32314999999999999</v>
       </c>
       <c r="O9">
-        <v>0.78885000000000005</v>
+        <v>0.1</v>
       </c>
       <c r="P9">
-        <v>0.43075000000000002</v>
+        <v>0.24934999999999999</v>
       </c>
       <c r="Q9">
-        <v>0.19025</v>
+        <v>0.79159999999999997</v>
       </c>
       <c r="R9">
-        <v>0.94430000000000003</v>
+        <v>0.32295000000000001</v>
       </c>
       <c r="S9">
-        <v>0.20899999999999999</v>
+        <v>0.62509999999999999</v>
       </c>
       <c r="T9">
-        <v>0.57579999999999998</v>
+        <v>0.70665</v>
       </c>
       <c r="U9">
-        <v>0.71855000000000002</v>
+        <v>0.91769999999999996</v>
       </c>
       <c r="V9">
-        <v>0.48609999999999998</v>
+        <v>0.34189999999999998</v>
       </c>
       <c r="W9">
-        <v>0.53680000000000005</v>
+        <v>0.52449999999999997</v>
       </c>
       <c r="X9">
-        <v>0.56789999999999996</v>
+        <v>0.48044999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.82164999999999999</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="Z9">
-        <v>0.63424999999999998</v>
+        <v>0.55954999999999999</v>
       </c>
       <c r="AA9">
-        <v>0.4365</v>
+        <v>0.58340000000000003</v>
       </c>
       <c r="AB9">
-        <v>0.26295000000000002</v>
+        <v>0.72314999999999996</v>
       </c>
       <c r="AC9">
-        <v>0.71765000000000001</v>
+        <v>0.59989999999999999</v>
       </c>
       <c r="AD9">
-        <v>0.54354999999999998</v>
+        <v>0.41139999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.47084999999999999</v>
+        <v>0.25290000000000001</v>
       </c>
       <c r="AF9">
-        <v>0.61775000000000002</v>
+        <v>0.51375000000000004</v>
       </c>
       <c r="AG9">
-        <v>0.32540000000000002</v>
+        <v>0.25140000000000001</v>
       </c>
       <c r="AH9">
-        <v>0.38740000000000002</v>
+        <v>0.27365</v>
       </c>
       <c r="AI9">
-        <v>0.45905000000000001</v>
+        <v>0.36680000000000001</v>
       </c>
       <c r="AJ9">
-        <v>0.32869999999999999</v>
+        <v>0.49075000000000002</v>
       </c>
       <c r="AK9">
-        <v>0.52205000000000001</v>
+        <v>0.23615</v>
       </c>
       <c r="AL9">
-        <v>0.34494999999999998</v>
+        <v>0.4012</v>
       </c>
       <c r="AM9">
-        <v>0.67115000000000002</v>
+        <v>0.63890000000000002</v>
       </c>
       <c r="AN9">
-        <v>0.48635</v>
+        <v>0.49070000000000003</v>
       </c>
       <c r="AO9">
-        <v>0.54430000000000001</v>
+        <v>0.20905000000000001</v>
       </c>
       <c r="AP9">
-        <v>0.44955000000000001</v>
+        <v>0.32224999999999998</v>
       </c>
       <c r="AQ9">
-        <v>0.1104</v>
+        <v>0.52880000000000005</v>
       </c>
       <c r="AR9">
-        <v>0.56620000000000004</v>
+        <v>0.60724999999999996</v>
       </c>
       <c r="AS9">
-        <v>0.85485</v>
+        <v>0.60670000000000002</v>
       </c>
       <c r="AT9">
-        <v>0.57455000000000001</v>
+        <v>0.65869999999999995</v>
       </c>
       <c r="AU9">
-        <v>0.46989999999999998</v>
+        <v>0.10854999999999999</v>
       </c>
       <c r="AV9">
-        <v>0.62534999999999996</v>
+        <v>0.51749999999999996</v>
       </c>
       <c r="AW9">
-        <v>0.54559999999999997</v>
+        <v>0.26640000000000003</v>
       </c>
       <c r="AX9">
-        <v>0.7056</v>
+        <v>0.30730000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.51370000000000005</v>
+        <v>0.22714999999999999</v>
       </c>
       <c r="B10">
-        <v>0.60319999999999996</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="C10">
-        <v>0.54435</v>
+        <v>0.55735000000000001</v>
       </c>
       <c r="D10">
-        <v>0.66195000000000004</v>
+        <v>0.68935000000000002</v>
       </c>
       <c r="E10">
-        <v>0.41170000000000001</v>
+        <v>0.5857</v>
       </c>
       <c r="F10">
-        <v>0.84140000000000004</v>
+        <v>0.50449999999999995</v>
       </c>
       <c r="G10">
-        <v>3.1899999999999998E-2</v>
+        <v>0.60860000000000003</v>
       </c>
       <c r="H10">
-        <v>0.63754999999999995</v>
+        <v>0.27794999999999997</v>
       </c>
       <c r="I10">
-        <v>0.61170000000000002</v>
+        <v>0.30030000000000001</v>
       </c>
       <c r="J10">
-        <v>0.85770000000000002</v>
+        <v>0.40934999999999999</v>
       </c>
       <c r="K10">
-        <v>0.51605000000000001</v>
+        <v>0.22495000000000001</v>
       </c>
       <c r="L10">
-        <v>0.2001</v>
+        <v>0.75870000000000004</v>
       </c>
       <c r="M10">
-        <v>0.66649999999999998</v>
+        <v>0.55230000000000001</v>
       </c>
       <c r="N10">
-        <v>0.26245000000000002</v>
+        <v>0.37985000000000002</v>
       </c>
       <c r="O10">
-        <v>0.71519999999999995</v>
+        <v>0.309</v>
       </c>
       <c r="P10">
-        <v>0.42525000000000002</v>
+        <v>0.14044999999999999</v>
       </c>
       <c r="Q10">
-        <v>0.23449999999999999</v>
+        <v>0.71809999999999996</v>
       </c>
       <c r="R10">
-        <v>0.73655000000000004</v>
+        <v>0.38095000000000001</v>
       </c>
       <c r="S10">
-        <v>0.2029</v>
+        <v>0.5766</v>
       </c>
       <c r="T10">
-        <v>0.53574999999999995</v>
+        <v>0.87555000000000005</v>
       </c>
       <c r="U10">
-        <v>0.76865000000000006</v>
+        <v>0.85985</v>
       </c>
       <c r="V10">
-        <v>0.86185</v>
+        <v>0.34229999999999999</v>
       </c>
       <c r="W10">
-        <v>0.43814999999999998</v>
+        <v>0.45779999999999998</v>
       </c>
       <c r="X10">
-        <v>0.73645000000000005</v>
+        <v>0.63454999999999995</v>
       </c>
       <c r="Y10">
-        <v>0.64015</v>
+        <v>0.19389999999999999</v>
       </c>
       <c r="Z10">
-        <v>0.60765000000000002</v>
+        <v>0.55569999999999997</v>
       </c>
       <c r="AA10">
-        <v>0.40465000000000001</v>
+        <v>0.1908</v>
       </c>
       <c r="AB10">
-        <v>0.26340000000000002</v>
+        <v>0.56964999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.63100000000000001</v>
+        <v>0.49280000000000002</v>
       </c>
       <c r="AD10">
-        <v>0.65254999999999996</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="AE10">
-        <v>0.50880000000000003</v>
+        <v>0.23794999999999999</v>
       </c>
       <c r="AF10">
-        <v>0.5837</v>
+        <v>0.39845000000000003</v>
       </c>
       <c r="AG10">
-        <v>0.28599999999999998</v>
+        <v>0.27844999999999998</v>
       </c>
       <c r="AH10">
-        <v>0.25764999999999999</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="AI10">
-        <v>0.55369999999999997</v>
+        <v>0.41149999999999998</v>
       </c>
       <c r="AJ10">
-        <v>0.60135000000000005</v>
+        <v>0.38924999999999998</v>
       </c>
       <c r="AK10">
-        <v>0.56974999999999998</v>
+        <v>0.17715</v>
       </c>
       <c r="AL10">
-        <v>0.50019999999999998</v>
+        <v>0.43419999999999997</v>
       </c>
       <c r="AM10">
-        <v>0.6099</v>
+        <v>0.84014999999999995</v>
       </c>
       <c r="AN10">
-        <v>0.33200000000000002</v>
+        <v>0.71835000000000004</v>
       </c>
       <c r="AO10">
-        <v>0.42795</v>
+        <v>0.14990000000000001</v>
       </c>
       <c r="AP10">
-        <v>0.47115000000000001</v>
+        <v>0.35235</v>
       </c>
       <c r="AQ10">
-        <v>0.26750000000000002</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="AR10">
-        <v>0.48480000000000001</v>
+        <v>0.54020000000000001</v>
       </c>
       <c r="AS10">
-        <v>0.83565</v>
+        <v>0.29425000000000001</v>
       </c>
       <c r="AT10">
-        <v>0.52900000000000003</v>
+        <v>0.41010000000000002</v>
       </c>
       <c r="AU10">
-        <v>0.36780000000000002</v>
+        <v>8.5349999999999995E-2</v>
       </c>
       <c r="AV10">
-        <v>0.45974999999999999</v>
+        <v>0.38934999999999997</v>
       </c>
       <c r="AW10">
-        <v>0.49364999999999998</v>
+        <v>0.20180000000000001</v>
       </c>
       <c r="AX10">
-        <v>0.54349999999999998</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.49740000000000001</v>
+        <v>0.66984999999999995</v>
       </c>
       <c r="B11">
-        <v>0.45884999999999998</v>
+        <v>0.45524999999999999</v>
       </c>
       <c r="C11">
-        <v>0.2412</v>
+        <v>0.61114999999999997</v>
       </c>
       <c r="D11">
-        <v>0.48449999999999999</v>
+        <v>0.68530000000000002</v>
       </c>
       <c r="E11">
-        <v>0.65275000000000005</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="F11">
-        <v>0.83579999999999999</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="G11">
-        <v>1.43E-2</v>
+        <v>0.70115000000000005</v>
       </c>
       <c r="H11">
-        <v>0.32884999999999998</v>
+        <v>0.40810000000000002</v>
       </c>
       <c r="I11">
-        <v>0.55764999999999998</v>
+        <v>0.37874999999999998</v>
       </c>
       <c r="J11">
-        <v>0.88280000000000003</v>
+        <v>0.3226</v>
       </c>
       <c r="K11">
-        <v>0.44105</v>
+        <v>0.36159999999999998</v>
       </c>
       <c r="L11">
-        <v>0.34005000000000002</v>
+        <v>0.39539999999999997</v>
       </c>
       <c r="M11">
-        <v>0.66395000000000004</v>
+        <v>0.59225000000000005</v>
       </c>
       <c r="N11">
-        <v>0.23375000000000001</v>
+        <v>0.41170000000000001</v>
       </c>
       <c r="O11">
-        <v>0.66590000000000005</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="P11">
-        <v>0.22009999999999999</v>
+        <v>0.17630000000000001</v>
       </c>
       <c r="Q11">
-        <v>0.1729</v>
+        <v>0.62849999999999995</v>
       </c>
       <c r="R11">
-        <v>0.78725000000000001</v>
+        <v>0.47434999999999999</v>
       </c>
       <c r="S11">
-        <v>0.32505000000000001</v>
+        <v>0.622</v>
       </c>
       <c r="T11">
-        <v>0.32555000000000001</v>
+        <v>0.80735000000000001</v>
       </c>
       <c r="U11">
-        <v>0.84694999999999998</v>
+        <v>0.91820000000000002</v>
       </c>
       <c r="V11">
-        <v>0.77805000000000002</v>
+        <v>0.40529999999999999</v>
       </c>
       <c r="W11">
-        <v>0.65049999999999997</v>
+        <v>0.45755000000000001</v>
       </c>
       <c r="X11">
-        <v>0.57120000000000004</v>
+        <v>0.62814999999999999</v>
       </c>
       <c r="Y11">
-        <v>0.48199999999999998</v>
+        <v>0.11065</v>
       </c>
       <c r="Z11">
-        <v>0.67605000000000004</v>
+        <v>0.59645000000000004</v>
       </c>
       <c r="AA11">
-        <v>0.60675000000000001</v>
+        <v>0.24575</v>
       </c>
       <c r="AB11">
-        <v>0.4148</v>
+        <v>0.50960000000000005</v>
       </c>
       <c r="AC11">
-        <v>0.57655000000000001</v>
+        <v>0.70269999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.49575000000000002</v>
+        <v>0.52359999999999995</v>
       </c>
       <c r="AE11">
-        <v>0.51519999999999999</v>
+        <v>0.38924999999999998</v>
       </c>
       <c r="AF11">
-        <v>0.5333</v>
+        <v>0.3296</v>
       </c>
       <c r="AG11">
-        <v>0.34649999999999997</v>
+        <v>0.66149999999999998</v>
       </c>
       <c r="AH11">
-        <v>0.47570000000000001</v>
+        <v>0.41084999999999999</v>
       </c>
       <c r="AI11">
-        <v>0.52495000000000003</v>
+        <v>0.34810000000000002</v>
       </c>
       <c r="AJ11">
-        <v>0.49285000000000001</v>
+        <v>0.378</v>
       </c>
       <c r="AK11">
-        <v>0.65849999999999997</v>
+        <v>9.6600000000000005E-2</v>
       </c>
       <c r="AL11">
-        <v>0.63034999999999997</v>
+        <v>0.75805</v>
       </c>
       <c r="AM11">
-        <v>0.59155000000000002</v>
+        <v>0.86155000000000004</v>
       </c>
       <c r="AN11">
-        <v>0.38405</v>
+        <v>0.61604999999999999</v>
       </c>
       <c r="AO11">
-        <v>0.72845000000000004</v>
+        <v>0.31314999999999998</v>
       </c>
       <c r="AP11">
-        <v>0.43919999999999998</v>
+        <v>0.5968</v>
       </c>
       <c r="AQ11">
-        <v>0.45745000000000002</v>
+        <v>0.52249999999999996</v>
       </c>
       <c r="AR11">
-        <v>0.65415000000000001</v>
+        <v>0.68484999999999996</v>
       </c>
       <c r="AS11">
-        <v>0.65859999999999996</v>
+        <v>0.53085000000000004</v>
       </c>
       <c r="AT11">
-        <v>0.52800000000000002</v>
+        <v>0.37225000000000003</v>
       </c>
       <c r="AU11">
-        <v>0.30199999999999999</v>
+        <v>0.14280000000000001</v>
       </c>
       <c r="AV11">
-        <v>0.55100000000000005</v>
+        <v>0.39945000000000003</v>
       </c>
       <c r="AW11">
-        <v>0.39910000000000001</v>
+        <v>0.20979999999999999</v>
       </c>
       <c r="AX11">
-        <v>0.39900000000000002</v>
+        <v>0.1295</v>
       </c>
     </row>
   </sheetData>
